--- a/data/trans_camb/P16A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A_R-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3456245861648536</v>
+        <v>-0.1923632874178857</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5122193341495743</v>
+        <v>-0.4829442321513748</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3784961472732798</v>
+        <v>-0.3764721013404608</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.927312472471626</v>
+        <v>-3.126985766809256</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.863678374059774</v>
+        <v>-3.200795382941374</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.310013154876291</v>
+        <v>-2.748160589333023</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.219061507064496</v>
+        <v>-1.23486986632061</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.311617461955112</v>
+        <v>-1.357953103334294</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.9457261315975716</v>
+        <v>-1.023103893167821</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.114207371106471</v>
+        <v>2.23203223765789</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.146763511308001</v>
+        <v>1.960652370367926</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.384209847881256</v>
+        <v>3.84849327658564</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.421460973932676</v>
+        <v>1.575474506491953</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.688968537796721</v>
+        <v>1.759140742008201</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.282544745633446</v>
+        <v>4.843367590834877</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.398432320921284</v>
+        <v>1.363167408585863</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.460350248727679</v>
+        <v>1.401970267677532</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.267153355235471</v>
+        <v>2.989440679895138</v>
       </c>
     </row>
     <row r="7">
@@ -780,29 +780,29 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6451423703247732</v>
+        <v>-0.5828033021315372</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.6172696408163822</v>
+        <v>-0.6423240627651867</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6251732721957969</v>
+        <v>-0.6340649928406765</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5750296781360148</v>
+        <v>-0.6328620586921807</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.46464863829637</v>
+        <v>-0.485187940405835</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.496412177694357</v>
+        <v>-0.5130135455319355</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4030192873322338</v>
+        <v>-0.4661188463415503</v>
       </c>
     </row>
     <row r="9">
@@ -812,28 +812,26 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>9.101592493668406</v>
-      </c>
+      <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>0.5652834319005819</v>
+        <v>0.6981562422841241</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7492384926058216</v>
+        <v>0.7068420777234705</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.908969907599096</v>
+        <v>1.73148567419938</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9688176952123487</v>
+        <v>0.9096128524500385</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.992183987319338</v>
+        <v>0.9765975306555222</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.922539596459714</v>
+        <v>1.71738857732806</v>
       </c>
     </row>
     <row r="10">
@@ -863,7 +861,7 @@
         <v>-0.8930405305072706</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.1941130030179261</v>
+        <v>-0.1941130030179254</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.006712474302312</v>
@@ -872,7 +870,7 @@
         <v>-0.6632163914913263</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.2952604780897886</v>
+        <v>-0.2952604780897878</v>
       </c>
     </row>
     <row r="11">
@@ -883,31 +881,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9175246241097784</v>
+        <v>-0.976273897359922</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.293760657290998</v>
+        <v>-2.029721637625301</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.203216641297358</v>
+        <v>-2.27032276095339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.723646345344366</v>
+        <v>-1.888982453417599</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.121054317094509</v>
+        <v>-3.128225495486161</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.620097105721593</v>
+        <v>-2.47425024402036</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.3425412244989124</v>
+        <v>-0.8392074627677472</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.052318695424295</v>
+        <v>-2.045047205530779</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.829943101765113</v>
+        <v>-1.910086600314506</v>
       </c>
     </row>
     <row r="12">
@@ -918,31 +916,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.201083851482299</v>
+        <v>2.926212763907866</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.085672981320681</v>
+        <v>1.261092340030541</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.103608474263881</v>
+        <v>1.623419227198477</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.517486799656608</v>
+        <v>3.361697678580722</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.294216310607742</v>
+        <v>1.318961953321512</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.386022965334802</v>
+        <v>2.520428813591286</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.814708276755878</v>
+        <v>2.61085732740586</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7502009159169576</v>
+        <v>0.6567178657163192</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.327082885323993</v>
+        <v>1.204386405979202</v>
       </c>
     </row>
     <row r="13">
@@ -968,7 +966,7 @@
         <v>-0.1994811711369378</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.04335961006487442</v>
+        <v>-0.04335961006487427</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2783893609624271</v>
@@ -977,7 +975,7 @@
         <v>-0.1834013108211797</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.08164930693825233</v>
+        <v>-0.08164930693825213</v>
       </c>
     </row>
     <row r="14">
@@ -988,31 +986,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2873074096686868</v>
+        <v>-0.3060662879103299</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6136538814986989</v>
+        <v>-0.5852186276412558</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6550865277420772</v>
+        <v>-0.6662312796869058</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2975318551446284</v>
+        <v>-0.3297793090353953</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5559595585992297</v>
+        <v>-0.5645510255050249</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4768884297904981</v>
+        <v>-0.464255179457973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09652652060794541</v>
+        <v>-0.1838694558390943</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4680678362619481</v>
+        <v>-0.4681455706430673</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.427229930917956</v>
+        <v>-0.4523386423603029</v>
       </c>
     </row>
     <row r="15">
@@ -1023,31 +1021,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.511237055649055</v>
+        <v>1.315202916266319</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6005644254255325</v>
+        <v>0.673519645696936</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.003577468385945</v>
+        <v>0.8307663863655737</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.054404893577738</v>
+        <v>0.9701976267807146</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4169963395593476</v>
+        <v>0.4162420831265383</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7150017210946985</v>
+        <v>0.7844426661590301</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9893476254543029</v>
+        <v>0.8795846846933774</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2758956553338158</v>
+        <v>0.2449999680572443</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4714874611449876</v>
+        <v>0.4387320635155476</v>
       </c>
     </row>
     <row r="16">
@@ -1068,7 +1066,7 @@
         <v>2.314920869964171</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.227376313109483</v>
+        <v>2.227376313109485</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.028317843283078</v>
@@ -1086,7 +1084,7 @@
         <v>1.68136962086344</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.727310056220106</v>
+        <v>1.727310056220105</v>
       </c>
     </row>
     <row r="17">
@@ -1097,31 +1095,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7839660175762545</v>
+        <v>0.5697106581914855</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1948830730089365</v>
+        <v>0.02367483390736564</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1385107459054902</v>
+        <v>-0.04529237404939576</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8251684814906162</v>
+        <v>0.6511340397375683</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.748444162376794</v>
+        <v>-1.806925645131652</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.456521444253493</v>
+        <v>-1.719086353247334</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.305794034109304</v>
+        <v>1.453821669675028</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.1516906788909469</v>
+        <v>-0.3217154922595243</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.03878131084955399</v>
+        <v>0.007478014939419711</v>
       </c>
     </row>
     <row r="18">
@@ -1132,31 +1130,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.376688642135218</v>
+        <v>5.277453060749828</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.587509089615917</v>
+        <v>4.560731422906312</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.703853954075256</v>
+        <v>4.548196075314759</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.286032850288561</v>
+        <v>6.915846884571216</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.302880704684313</v>
+        <v>4.401889963543743</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.283830271491014</v>
+        <v>4.026823897053176</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.463348327150523</v>
+        <v>5.341449436190869</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.557241199195451</v>
+        <v>3.560229870247996</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.503980679646096</v>
+        <v>3.738107689869981</v>
       </c>
     </row>
     <row r="19">
@@ -1173,7 +1171,7 @@
         <v>0.8165181030890998</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7856394167261089</v>
+        <v>0.7856394167261094</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5170296116146482</v>
@@ -1191,7 +1189,7 @@
         <v>0.3108769781742047</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.319371138852779</v>
+        <v>0.3193711388527787</v>
       </c>
     </row>
     <row r="20">
@@ -1202,31 +1200,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1802447722436036</v>
+        <v>0.1419235194145475</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.0006048864070039143</v>
+        <v>-0.02559570303495727</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02717406444420165</v>
+        <v>-0.02457666423886018</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.07953408953102171</v>
+        <v>0.07333091288897538</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.195841703481307</v>
+        <v>-0.2002966847516843</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1657979194387867</v>
+        <v>-0.183931713372893</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2055834395940114</v>
+        <v>0.2337081940449297</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.02619190991890324</v>
+        <v>-0.05080556269152058</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.005305331834443637</v>
+        <v>-0.009991982567785556</v>
       </c>
     </row>
     <row r="21">
@@ -1237,31 +1235,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.706342413356136</v>
+        <v>2.66479286214512</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.368890619821464</v>
+        <v>2.247061793330826</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.521861760829544</v>
+        <v>2.300756231789212</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.204241887016681</v>
+        <v>1.116301861414727</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7051194087260975</v>
+        <v>0.7080176351281272</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6771606403329691</v>
+        <v>0.6326311328617326</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.225321323735471</v>
+        <v>1.151271483868629</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7953741421369096</v>
+        <v>0.785354540507093</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7961462740030977</v>
+        <v>0.7918297034797172</v>
       </c>
     </row>
     <row r="22">
@@ -1291,7 +1289,7 @@
         <v>1.706670472063621</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.022774042408681</v>
+        <v>1.022774042408678</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.282421663507598</v>
@@ -1300,7 +1298,7 @@
         <v>1.619999381090677</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.517088469736131</v>
+        <v>2.517088469736132</v>
       </c>
     </row>
     <row r="23">
@@ -1311,31 +1309,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.687061327607879</v>
+        <v>-2.029123079642696</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.496825356951947</v>
+        <v>-1.553036181420608</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7672320055515139</v>
+        <v>0.5627955150470194</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.153160475334458</v>
+        <v>-0.9630388852413778</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.804711427038809</v>
+        <v>-2.504239788939483</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.677484806675786</v>
+        <v>-2.56508138808599</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4440339017146358</v>
+        <v>-0.5501397854093357</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.098926756712346</v>
+        <v>-1.165505758837788</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.155991203834495</v>
+        <v>-0.06869716167440587</v>
       </c>
     </row>
     <row r="24">
@@ -1346,31 +1344,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.10258481701642</v>
+        <v>4.001524202450837</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.292595369098481</v>
+        <v>4.31408497040487</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.638255099559657</v>
+        <v>6.746471444471547</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.815247789691253</v>
+        <v>7.743380838566074</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.254785415516056</v>
+        <v>5.620030841930997</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.477319563378327</v>
+        <v>4.619379817473278</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.41282734344385</v>
+        <v>4.777344605774815</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.232399759253109</v>
+        <v>4.26335241200926</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.967722324767014</v>
+        <v>4.71824433975045</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1394,7 @@
         <v>0.1258300282336028</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0754074607485697</v>
+        <v>0.07540746074856951</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2402013954023719</v>
@@ -1405,7 +1403,7 @@
         <v>0.1704882660861863</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2648976621842455</v>
+        <v>0.2648976621842457</v>
       </c>
     </row>
     <row r="26">
@@ -1416,31 +1414,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2546711402934835</v>
+        <v>-0.2906884602689119</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2142357544173607</v>
+        <v>-0.2431896581575559</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.06136347061050187</v>
+        <v>0.02455060541689434</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.07528584742020869</v>
+        <v>-0.06649832595663305</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1153174183050664</v>
+        <v>-0.1567625275260186</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1694554094380527</v>
+        <v>-0.1589635394782452</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.04083682616945638</v>
+        <v>-0.05001182636360994</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09781297474323687</v>
+        <v>-0.1095550256901366</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.009627981463365437</v>
+        <v>-0.004217029124946817</v>
       </c>
     </row>
     <row r="27">
@@ -1451,31 +1449,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.009041170939321</v>
+        <v>0.9909924760375475</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.074110112389272</v>
+        <v>1.059711861056073</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.60935920661669</v>
+        <v>1.627497219658164</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6617815892009947</v>
+        <v>0.6630388676649646</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5681613045861447</v>
+        <v>0.5136360460379837</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4013292853719516</v>
+        <v>0.4326675193105096</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.639213192260337</v>
+        <v>0.5890926534226495</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5113371713918068</v>
+        <v>0.5042938087522004</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6130884107320864</v>
+        <v>0.5913995079272211</v>
       </c>
     </row>
     <row r="28">
@@ -1496,7 +1494,7 @@
         <v>1.146844691295212</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.077620879264318</v>
+        <v>4.077620879264321</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.71577629842089</v>
@@ -1505,7 +1503,7 @@
         <v>7.568755416812939</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.386804344861763</v>
+        <v>6.386804344861768</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.729254774435134</v>
@@ -1525,31 +1523,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.460648059150671</v>
+        <v>-1.172122963148537</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.820647460530718</v>
+        <v>-2.731913605391727</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2511970540111604</v>
+        <v>0.2725010284791689</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.9122964777131158</v>
+        <v>-0.9475634881426429</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.121489382383262</v>
+        <v>2.154980993911504</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.313618674013505</v>
+        <v>1.601323743705046</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.197607616059642</v>
+        <v>0.0695028853556834</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.9588252480678272</v>
+        <v>1.059978811817032</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.908893185622853</v>
+        <v>1.79676534092283</v>
       </c>
     </row>
     <row r="30">
@@ -1560,31 +1558,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.579722442190232</v>
+        <v>6.647250241665907</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.998537087421933</v>
+        <v>5.108031861216478</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.722188179471015</v>
+        <v>7.783398351026656</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.83557901817355</v>
+        <v>10.18398929713424</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.10006587873327</v>
+        <v>13.18191372617746</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.08295223097653</v>
+        <v>11.22595948416382</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.884133200363713</v>
+        <v>7.013120859648435</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.938625318642877</v>
+        <v>8.062602134615608</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.37448993298805</v>
+        <v>7.919247287547088</v>
       </c>
     </row>
     <row r="31">
@@ -1601,7 +1599,7 @@
         <v>0.1472069325480036</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5233961200555277</v>
+        <v>0.523396120055528</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2524270232900684</v>
@@ -1610,7 +1608,7 @@
         <v>0.4051418640270181</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3418741490450654</v>
+        <v>0.3418741490450657</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2792361873896921</v>
@@ -1630,31 +1628,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1539805590971551</v>
+        <v>-0.1348941082679395</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3069804936630212</v>
+        <v>-0.2924083318392457</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.0058116884059524</v>
+        <v>-0.003986769173580653</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.04267112668532787</v>
+        <v>-0.04984087687423704</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1016729925324708</v>
+        <v>0.1001645477490678</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0422272247463174</v>
+        <v>0.07530217990028701</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02048608323197809</v>
+        <v>0.004985184921107941</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.05861370370728464</v>
+        <v>0.06466003720897488</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1169123979732247</v>
+        <v>0.1114034014586933</v>
       </c>
     </row>
     <row r="33">
@@ -1665,31 +1663,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.122138639719751</v>
+        <v>1.055666467646638</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8164613448744804</v>
+        <v>0.8446259955699604</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.312906210905872</v>
+        <v>1.312498531091345</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.691493193124313</v>
+        <v>0.6472011234158545</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.833559384038964</v>
+        <v>0.8665099136240816</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6922726109866175</v>
+        <v>0.7251709464838322</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5928133107097072</v>
+        <v>0.606354159251814</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6895622707563638</v>
+        <v>0.6856798701039269</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7285526418486417</v>
+        <v>0.6855019668981276</v>
       </c>
     </row>
     <row r="34">
@@ -1710,7 +1708,7 @@
         <v>0.3956920585305224</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1.981577100167135</v>
+        <v>1.981577100167138</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>5.408166624070487</v>
@@ -1719,7 +1717,7 @@
         <v>9.542747436249238</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>8.297512607967889</v>
+        <v>8.297512607967883</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.282014608214554</v>
@@ -1739,31 +1737,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.997720678166217</v>
+        <v>-4.300629569130399</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.431888515726975</v>
+        <v>-4.668543808451627</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.342258083523605</v>
+        <v>-2.084878232622593</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.7150331381811756</v>
+        <v>-0.6217973710967775</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>3.454151539665134</v>
+        <v>3.530174139753986</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.684840892332822</v>
+        <v>2.616827414372194</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.8629938589424364</v>
+        <v>-0.7737955708845407</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.5704238462978618</v>
+        <v>0.8814564453360566</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.45431416281777</v>
+        <v>1.646220224658311</v>
       </c>
     </row>
     <row r="36">
@@ -1774,31 +1772,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.91512986849968</v>
+        <v>6.120120225356568</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.001917679216766</v>
+        <v>5.093645402508868</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.730779064826868</v>
+        <v>5.940699593779489</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.73615757405012</v>
+        <v>11.5523870240653</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>16.45491257135891</v>
+        <v>15.8870364825852</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>13.47228791318905</v>
+        <v>12.92942108000387</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.229816674697773</v>
+        <v>7.352391906041501</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>9.339611727685011</v>
+        <v>9.018018545913622</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.404381668613716</v>
+        <v>8.592572165816941</v>
       </c>
     </row>
     <row r="37">
@@ -1815,7 +1813,7 @@
         <v>0.04006253884352859</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.2006282608797137</v>
+        <v>0.200628260879714</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2672260876244491</v>
@@ -1824,7 +1822,7 @@
         <v>0.471522280993961</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4099932537901219</v>
+        <v>0.4099932537901216</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2121813545910556</v>
@@ -1844,31 +1842,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3398781768846167</v>
+        <v>-0.3702201254058386</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3650573195023697</v>
+        <v>-0.3827413281156416</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2010454522604077</v>
+        <v>-0.1709517312476686</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.03411163613243763</v>
+        <v>-0.03738244869959158</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1474981736239741</v>
+        <v>0.1533750034638622</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1025878748695733</v>
+        <v>0.1232714361679913</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.06151379511857612</v>
+        <v>-0.0532587943926834</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.03434831447049424</v>
+        <v>0.04657938584903056</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.08338952653040263</v>
+        <v>0.09001687333689685</v>
       </c>
     </row>
     <row r="39">
@@ -1879,31 +1877,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.8586726315107928</v>
+        <v>0.7823907707382963</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6738413150699983</v>
+        <v>0.6511451765728397</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.9440271069897557</v>
+        <v>0.8241786583107898</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6888975417993605</v>
+        <v>0.6878321249558398</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.9698538198849398</v>
+        <v>0.9208303846586261</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7739289944516317</v>
+        <v>0.7882957403286006</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5245322763722072</v>
+        <v>0.5349265535975373</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6814405802921382</v>
+        <v>0.6694880818223573</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.6311610671775933</v>
+        <v>0.6652565141444403</v>
       </c>
     </row>
     <row r="40">
@@ -1924,7 +1922,7 @@
         <v>-0.2635318808699688</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>7.76942198818513</v>
+        <v>7.769421988185127</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>13.35080102623324</v>
@@ -1953,31 +1951,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-7.602511567750819</v>
+        <v>-6.671071980803421</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.434726533353056</v>
+        <v>-6.370262917439312</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.9979554877009751</v>
+        <v>1.446096535766191</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6.782274237793624</v>
+        <v>6.21060034475228</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.1841960789281222</v>
+        <v>0.3769287557023281</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>12.58287298585318</v>
+        <v>13.01588098191057</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.807721156456311</v>
+        <v>3.328621669191629</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.1502949235184421</v>
+        <v>-0.458433742467367</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>9.930029484213263</v>
+        <v>9.983387590409897</v>
       </c>
     </row>
     <row r="42">
@@ -1988,31 +1986,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.081746405476277</v>
+        <v>6.278269698610861</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.945226385279397</v>
+        <v>5.993143088766959</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.52611195681047</v>
+        <v>13.62456413769651</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>20.11738363751707</v>
+        <v>19.62770289493182</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>13.85019147883359</v>
+        <v>13.58541115533049</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>24.13112221747269</v>
+        <v>23.83389673392895</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>12.45355564130716</v>
+        <v>12.81031974892124</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>9.199602427742027</v>
+        <v>8.943344680435009</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>18.34451971923258</v>
+        <v>18.60324109826252</v>
       </c>
     </row>
     <row r="43">
@@ -2029,7 +2027,7 @@
         <v>-0.01756836814703396</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.5179489681760605</v>
+        <v>0.5179489681760604</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.7066958169605735</v>
@@ -2038,7 +2036,7 @@
         <v>0.3776374295490323</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.9718117873283071</v>
+        <v>0.9718117873283068</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.4539022274989786</v>
@@ -2047,7 +2045,7 @@
         <v>0.242747050259732</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.8087225659896224</v>
+        <v>0.8087225659896221</v>
       </c>
     </row>
     <row r="44">
@@ -2058,31 +2056,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4083097553726565</v>
+        <v>-0.3800324432650402</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3533194779118182</v>
+        <v>-0.3430211145584769</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.05219578774703441</v>
+        <v>0.08230636576733542</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.3113048265333266</v>
+        <v>0.2747282515624681</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.01191392772422265</v>
+        <v>0.01641250766865001</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5446707526894815</v>
+        <v>0.5765138462437827</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1424998964873564</v>
+        <v>0.1682968210991917</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.01071821886641792</v>
+        <v>-0.02291125266908754</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.4857847412997949</v>
+        <v>0.4770467014443286</v>
       </c>
     </row>
     <row r="45">
@@ -2093,31 +2091,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5341013988410569</v>
+        <v>0.5541881480169079</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5107437595257376</v>
+        <v>0.5378437094582624</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.219877761231348</v>
+        <v>1.223546177736323</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.329286963763209</v>
+        <v>1.245367742105298</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.9294417395332697</v>
+        <v>0.8747587944385865</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.66308949687336</v>
+        <v>1.579961625440863</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8445668168027604</v>
+        <v>0.8599893774460949</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6147848845025528</v>
+        <v>0.6075889945804152</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.254496901928929</v>
+        <v>1.272671293564925</v>
       </c>
     </row>
     <row r="46">
@@ -2147,7 +2145,7 @@
         <v>4.03682539837888</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>6.309216883795001</v>
+        <v>6.309216883795004</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>3.121797281924706</v>
@@ -2156,7 +2154,7 @@
         <v>2.742744358832122</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>5.094239653000815</v>
+        <v>5.094239653000812</v>
       </c>
     </row>
     <row r="47">
@@ -2167,31 +2165,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.5823487988698702</v>
+        <v>0.6184963411900705</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.2555601940883919</v>
+        <v>0.2188341866996894</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2.570456558918284</v>
+        <v>2.55700971866366</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2.729094838576984</v>
+        <v>2.779781044432083</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.405446513924319</v>
+        <v>2.222287583228462</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>4.907285073765542</v>
+        <v>4.726945849348558</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.004326546162899</v>
+        <v>2.101170916310945</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.608107824978439</v>
+        <v>1.790679345964859</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>4.167552277989968</v>
+        <v>4.012273313755379</v>
       </c>
     </row>
     <row r="48">
@@ -2202,31 +2200,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.914174455213462</v>
+        <v>2.984296036048545</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.571249637161936</v>
+        <v>2.496070720777508</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.878344387554261</v>
+        <v>4.821466991925799</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.160548015201941</v>
+        <v>6.038075465615874</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>5.570163756668191</v>
+        <v>5.704457617289732</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>7.923842962013812</v>
+        <v>7.787763915821923</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.070582135379276</v>
+        <v>4.223453280194209</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.709634076854064</v>
+        <v>3.836204268936772</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>6.160976536397325</v>
+        <v>5.972291431157754</v>
       </c>
     </row>
     <row r="49">
@@ -2252,7 +2250,7 @@
         <v>0.3620215041609057</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.5658090110278469</v>
+        <v>0.5658090110278471</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.3863261192486228</v>
@@ -2261,7 +2259,7 @@
         <v>0.3394178700755952</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.6304182039818057</v>
+        <v>0.6304182039818054</v>
       </c>
     </row>
     <row r="50">
@@ -2272,31 +2270,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1052277491570087</v>
+        <v>0.1160890543533992</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.04980652655526999</v>
+        <v>0.03267004981769421</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.4741095301982741</v>
+        <v>0.4667471550428646</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2300710971833856</v>
+        <v>0.2338339805472674</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.2006506830357439</v>
+        <v>0.18749428175966</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4063603284476718</v>
+        <v>0.3887481872769811</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2306407115105716</v>
+        <v>0.2461012268482822</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1881055866172614</v>
+        <v>0.210404224773522</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.4782561519264297</v>
+        <v>0.4692570055677099</v>
       </c>
     </row>
     <row r="51">
@@ -2307,31 +2305,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6706178842543478</v>
+        <v>0.6685297898864957</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5819694766726705</v>
+        <v>0.557314535681331</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.124090617704701</v>
+        <v>1.084420789481186</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5918998826919627</v>
+        <v>0.5772368761267443</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.5308737166014468</v>
+        <v>0.542898876887735</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.7799187835801218</v>
+        <v>0.7537594319803055</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.53168363252497</v>
+        <v>0.5511758271916906</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.4946428238166927</v>
+        <v>0.5167438327958386</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.8186221472013256</v>
+        <v>0.7825058242341411</v>
       </c>
     </row>
     <row r="52">
